--- a/crop_analysis/file_comparison_magazine_analysis.xlsx
+++ b/crop_analysis/file_comparison_magazine_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinym/Desktop/Desktop_AICenter✨/SFAIcenter/crop_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F13A63-E592-3B46-AFF6-1CF4707CF23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B592BC-74F4-3E4B-BA39-792D2F4EDB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,12 +730,13 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H26"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="6" max="6" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="156.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
